--- a/analysis_file_pairings.xlsx
+++ b/analysis_file_pairings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidding/PycharmProjects/coevolution_mechanism/01_process_reads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidding/PycharmProjects/coevolution_mechanism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106AE7D8-0A9D-1541-8540-F7E354C8E3FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8970DB44-FD78-FA4B-9C93-AF1F80ADFD8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54400" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{13E588BE-3F7B-3240-B3DC-886C73FF5746}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16940" xr2:uid="{13E588BE-3F7B-3240-B3DC-886C73FF5746}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="488">
   <si>
     <t>sample_name</t>
   </si>
@@ -285,48 +285,21 @@
     <t>PCR'd the antitoxin single mutant region off the plasmid.</t>
   </si>
   <si>
-    <t>bam</t>
-  </si>
-  <si>
-    <t>180716Lau_D18-6083_phiX_bestmap.bam</t>
-  </si>
-  <si>
-    <t>180716Lau_D18-6083_phiX_bestmap_m2.bam</t>
-  </si>
-  <si>
     <t>180716Lau_D18-6084</t>
   </si>
   <si>
     <t>Amplicon sequencing of Mesorhizobium opportunistum antitoxin ParD3 single mutant library in presence of wild-type toxin, time=0, biological replicate 2.</t>
   </si>
   <si>
-    <t>180716Lau_D18-6084_phiX_bestmap.bam</t>
-  </si>
-  <si>
-    <t>180716Lau_D18-6084_phiX_bestmap_m2.bam</t>
-  </si>
-  <si>
     <t>180716Lau_D18-6093</t>
   </si>
   <si>
     <t>Amplicon sequencing of Mesorhizobium opportunistum antitoxin ParD3 single mutant library in presence of wild-type toxin, time=600minutes, biological replicate 1.</t>
   </si>
   <si>
-    <t>180716Lau_D18-6093_phiX_bestmap.bam</t>
-  </si>
-  <si>
-    <t>180716Lau_D18-6093_phiX_bestmap_m2.bam</t>
-  </si>
-  <si>
     <t>180716Lau_D18-6094</t>
   </si>
   <si>
-    <t>180716Lau_D18-6094_phiX_bestmap.bam</t>
-  </si>
-  <si>
-    <t>180716Lau_D18-6094_phiX_bestmap_m2.bam</t>
-  </si>
-  <si>
     <t>190311Lau_D19-2172</t>
   </si>
   <si>
@@ -1642,6 +1615,54 @@
   </si>
   <si>
     <t>01_process_reads/at_combo_lib/</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6083_phiX_bestmap_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6083_phiX_bestmap_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6083_phiX_bestmap_m2_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6083_phiX_bestmap_m2_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6084_phiX_bestmap_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6084_phiX_bestmap_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6084_phiX_bestmap_m2_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6084_phiX_bestmap_m2_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6093_phiX_bestmap_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6093_phiX_bestmap_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6093_phiX_bestmap_m2_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6093_phiX_bestmap_m2_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6094_phiX_bestmap_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6094_phiX_bestmap_2_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6094_phiX_bestmap_m2_1_sequence.fastq.gz</t>
+  </si>
+  <si>
+    <t>180716Lau_D18-6094_phiX_bestmap_m2_2_sequence.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -2169,15 +2190,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8622B5AB-5D1D-514E-82AE-1CB31923ECDA}">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50:M97"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="12" max="12" width="49" customWidth="1"/>
-    <col min="13" max="13" width="36.33203125" customWidth="1"/>
-    <col min="14" max="14" width="35.83203125" customWidth="1"/>
+    <col min="12" max="12" width="44.33203125" customWidth="1"/>
+    <col min="13" max="13" width="47.33203125" customWidth="1"/>
+    <col min="14" max="14" width="49.33203125" customWidth="1"/>
     <col min="15" max="16" width="37.33203125" customWidth="1"/>
     <col min="17" max="17" width="35.33203125" customWidth="1"/>
     <col min="19" max="19" width="47.5" customWidth="1"/>
@@ -2243,7 +2264,7 @@
         <v>18</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2278,33 +2299,37 @@
         <v>27</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>475</v>
+      </c>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -2328,33 +2353,37 @@
         <v>27</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -2378,33 +2407,37 @@
         <v>27</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -2428,95 +2461,99 @@
         <v>27</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
+        <v>37</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>487</v>
+      </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
       <c r="T5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="Q6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="R6" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="S6" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="T6" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>21</v>
@@ -2534,51 +2571,51 @@
         <v>25</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>21</v>
@@ -2596,51 +2633,51 @@
         <v>25</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -2658,51 +2695,51 @@
         <v>25</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
@@ -2720,51 +2757,51 @@
         <v>25</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="T10" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>21</v>
@@ -2782,51 +2819,51 @@
         <v>25</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="13" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R11" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S11" s="13" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="T11" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>21</v>
@@ -2844,51 +2881,51 @@
         <v>25</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L12" s="11" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T12" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>21</v>
@@ -2906,51 +2943,51 @@
         <v>25</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O13" s="11" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="T13" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>21</v>
@@ -2968,51 +3005,51 @@
         <v>25</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="T14" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>21</v>
@@ -3030,51 +3067,51 @@
         <v>25</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O15" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="T15" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>21</v>
@@ -3092,51 +3129,51 @@
         <v>25</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="T16" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>21</v>
@@ -3154,51 +3191,51 @@
         <v>25</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="T17" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>21</v>
@@ -3216,51 +3253,51 @@
         <v>25</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P18" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="R18" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="S18" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="T18" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>21</v>
@@ -3278,51 +3315,51 @@
         <v>25</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="T19" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>21</v>
@@ -3340,51 +3377,51 @@
         <v>25</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="T20" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>21</v>
@@ -3402,51 +3439,51 @@
         <v>25</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="T21" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>21</v>
@@ -3464,43 +3501,43 @@
         <v>25</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N22" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
       <c r="R22" s="12"/>
       <c r="S22" s="12"/>
       <c r="T22" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
@@ -3518,43 +3555,43 @@
         <v>25</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O23" s="13" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>21</v>
@@ -3572,43 +3609,43 @@
         <v>25</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="N24" s="13" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>21</v>
@@ -3626,43 +3663,43 @@
         <v>25</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="N25" s="13" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="O25" s="13" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
       <c r="S25" s="12"/>
       <c r="T25" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>21</v>
@@ -3680,43 +3717,43 @@
         <v>25</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>21</v>
@@ -3734,43 +3771,43 @@
         <v>25</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12"/>
       <c r="T27" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>21</v>
@@ -3788,43 +3825,43 @@
         <v>25</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>21</v>
@@ -3842,43 +3879,43 @@
         <v>25</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>21</v>
@@ -3896,43 +3933,43 @@
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>21</v>
@@ -3950,43 +3987,43 @@
         <v>25</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="12"/>
       <c r="T31" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>21</v>
@@ -4004,43 +4041,43 @@
         <v>25</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="12"/>
       <c r="T32" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>21</v>
@@ -4058,43 +4095,43 @@
         <v>25</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N33" s="13" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="O33" s="13" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="12"/>
       <c r="T33" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>21</v>
@@ -4112,43 +4149,43 @@
         <v>25</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="N34" s="13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>21</v>
@@ -4166,43 +4203,43 @@
         <v>25</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="N35" s="13" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="12"/>
       <c r="T35" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>21</v>
@@ -4220,43 +4257,43 @@
         <v>25</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
       <c r="R36" s="12"/>
       <c r="S36" s="12"/>
       <c r="T36" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>21</v>
@@ -4274,43 +4311,43 @@
         <v>25</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="N37" s="13" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="12"/>
       <c r="T37" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>21</v>
@@ -4328,43 +4365,43 @@
         <v>25</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="N38" s="13" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
       <c r="S38" s="12"/>
       <c r="T38" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>21</v>
@@ -4382,43 +4419,43 @@
         <v>25</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="N39" s="13" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="12"/>
       <c r="T39" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>21</v>
@@ -4436,43 +4473,43 @@
         <v>25</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="N40" s="13" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="12"/>
       <c r="T40" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>21</v>
@@ -4490,43 +4527,43 @@
         <v>25</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="N41" s="13" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="12"/>
       <c r="T41" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>21</v>
@@ -4544,43 +4581,43 @@
         <v>25</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N42" s="13" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="12"/>
       <c r="T42" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>21</v>
@@ -4598,43 +4635,43 @@
         <v>25</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="N43" s="13" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>21</v>
@@ -4652,43 +4689,43 @@
         <v>25</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="N44" s="13" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="12"/>
       <c r="T44" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>21</v>
@@ -4706,43 +4743,43 @@
         <v>25</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="N45" s="13" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="O45" s="13" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
       <c r="T45" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>21</v>
@@ -4760,43 +4797,43 @@
         <v>25</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="N46" s="13" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O46" s="13" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
       <c r="T46" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>21</v>
@@ -4814,43 +4851,43 @@
         <v>25</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="N47" s="13" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
       <c r="T47" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>21</v>
@@ -4868,43 +4905,43 @@
         <v>25</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="N48" s="13" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="O48" s="13" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
       <c r="T48" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>21</v>
@@ -4922,43 +4959,43 @@
         <v>25</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L49" s="11" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="O49" s="11" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
       <c r="T49" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>21</v>
@@ -4976,19 +5013,19 @@
         <v>25</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
@@ -4997,18 +5034,18 @@
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
       <c r="T50" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>21</v>
@@ -5026,19 +5063,19 @@
         <v>25</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="N51" s="11"/>
       <c r="O51" s="12"/>
@@ -5047,48 +5084,48 @@
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
       <c r="T51" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="M52" s="13" t="s">
-        <v>340</v>
       </c>
       <c r="N52" s="11"/>
       <c r="O52" s="12"/>
@@ -5097,18 +5134,18 @@
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
       <c r="T52" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>21</v>
@@ -5126,19 +5163,19 @@
         <v>25</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="N53" s="11"/>
       <c r="O53" s="12"/>
@@ -5147,18 +5184,18 @@
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
       <c r="T53" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>21</v>
@@ -5176,19 +5213,19 @@
         <v>25</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="N54" s="11"/>
       <c r="O54" s="12"/>
@@ -5197,18 +5234,18 @@
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>21</v>
@@ -5226,19 +5263,19 @@
         <v>25</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="N55" s="11"/>
       <c r="O55" s="12"/>
@@ -5247,18 +5284,18 @@
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
       <c r="T55" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>21</v>
@@ -5276,19 +5313,19 @@
         <v>25</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="N56" s="11"/>
       <c r="O56" s="12"/>
@@ -5297,18 +5334,18 @@
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
       <c r="T56" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>21</v>
@@ -5326,19 +5363,19 @@
         <v>25</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="N57" s="11"/>
       <c r="O57" s="12"/>
@@ -5347,18 +5384,18 @@
       <c r="R57" s="12"/>
       <c r="S57" s="12"/>
       <c r="T57" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>21</v>
@@ -5376,19 +5413,19 @@
         <v>25</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L58" s="13" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="N58" s="11"/>
       <c r="O58" s="12"/>
@@ -5397,18 +5434,18 @@
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
       <c r="T58" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>21</v>
@@ -5426,19 +5463,19 @@
         <v>25</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L59" s="13" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="N59" s="11"/>
       <c r="O59" s="12"/>
@@ -5447,18 +5484,18 @@
       <c r="R59" s="12"/>
       <c r="S59" s="12"/>
       <c r="T59" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>21</v>
@@ -5476,19 +5513,19 @@
         <v>25</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L60" s="13" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="N60" s="11"/>
       <c r="O60" s="12"/>
@@ -5497,18 +5534,18 @@
       <c r="R60" s="12"/>
       <c r="S60" s="12"/>
       <c r="T60" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>21</v>
@@ -5526,19 +5563,19 @@
         <v>25</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L61" s="13" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="N61" s="11"/>
       <c r="O61" s="12"/>
@@ -5547,18 +5584,18 @@
       <c r="R61" s="12"/>
       <c r="S61" s="12"/>
       <c r="T61" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>21</v>
@@ -5576,19 +5613,19 @@
         <v>25</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L62" s="13" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="N62" s="11"/>
       <c r="O62" s="12"/>
@@ -5597,18 +5634,18 @@
       <c r="R62" s="12"/>
       <c r="S62" s="12"/>
       <c r="T62" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>21</v>
@@ -5626,19 +5663,19 @@
         <v>25</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L63" s="13" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="N63" s="11"/>
       <c r="O63" s="12"/>
@@ -5647,18 +5684,18 @@
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
       <c r="T63" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>21</v>
@@ -5676,19 +5713,19 @@
         <v>25</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L64" s="13" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="N64" s="11"/>
       <c r="O64" s="12"/>
@@ -5697,18 +5734,18 @@
       <c r="R64" s="12"/>
       <c r="S64" s="12"/>
       <c r="T64" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>21</v>
@@ -5726,19 +5763,19 @@
         <v>25</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="N65" s="11"/>
       <c r="O65" s="12"/>
@@ -5747,18 +5784,18 @@
       <c r="R65" s="12"/>
       <c r="S65" s="12"/>
       <c r="T65" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>21</v>
@@ -5776,19 +5813,19 @@
         <v>25</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L66" s="13" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N66" s="11"/>
       <c r="O66" s="12"/>
@@ -5797,18 +5834,18 @@
       <c r="R66" s="12"/>
       <c r="S66" s="12"/>
       <c r="T66" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>21</v>
@@ -5826,19 +5863,19 @@
         <v>25</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L67" s="13" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="N67" s="11"/>
       <c r="O67" s="12"/>
@@ -5847,18 +5884,18 @@
       <c r="R67" s="12"/>
       <c r="S67" s="12"/>
       <c r="T67" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>21</v>
@@ -5876,19 +5913,19 @@
         <v>25</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L68" s="13" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="N68" s="11"/>
       <c r="O68" s="12"/>
@@ -5897,18 +5934,18 @@
       <c r="R68" s="12"/>
       <c r="S68" s="12"/>
       <c r="T68" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>21</v>
@@ -5926,19 +5963,19 @@
         <v>25</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="N69" s="11"/>
       <c r="O69" s="12"/>
@@ -5947,18 +5984,18 @@
       <c r="R69" s="12"/>
       <c r="S69" s="12"/>
       <c r="T69" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
@@ -5976,19 +6013,19 @@
         <v>25</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="N70" s="11"/>
       <c r="O70" s="12"/>
@@ -5997,18 +6034,18 @@
       <c r="R70" s="12"/>
       <c r="S70" s="12"/>
       <c r="T70" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>21</v>
@@ -6026,19 +6063,19 @@
         <v>25</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L71" s="13" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="N71" s="11"/>
       <c r="O71" s="12"/>
@@ -6047,18 +6084,18 @@
       <c r="R71" s="12"/>
       <c r="S71" s="12"/>
       <c r="T71" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>21</v>
@@ -6076,19 +6113,19 @@
         <v>25</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L72" s="13" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="N72" s="11"/>
       <c r="O72" s="12"/>
@@ -6097,18 +6134,18 @@
       <c r="R72" s="12"/>
       <c r="S72" s="12"/>
       <c r="T72" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>21</v>
@@ -6126,19 +6163,19 @@
         <v>25</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L73" s="13" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="N73" s="11"/>
       <c r="O73" s="12"/>
@@ -6147,18 +6184,18 @@
       <c r="R73" s="12"/>
       <c r="S73" s="12"/>
       <c r="T73" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D74" s="8" t="s">
         <v>21</v>
@@ -6176,19 +6213,19 @@
         <v>25</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="N74" s="11"/>
       <c r="O74" s="12"/>
@@ -6197,18 +6234,18 @@
       <c r="R74" s="12"/>
       <c r="S74" s="12"/>
       <c r="T74" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>21</v>
@@ -6226,19 +6263,19 @@
         <v>25</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
@@ -6247,18 +6284,18 @@
       <c r="R75" s="12"/>
       <c r="S75" s="12"/>
       <c r="T75" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>21</v>
@@ -6276,19 +6313,19 @@
         <v>25</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
@@ -6297,18 +6334,18 @@
       <c r="R76" s="12"/>
       <c r="S76" s="12"/>
       <c r="T76" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>21</v>
@@ -6326,19 +6363,19 @@
         <v>25</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
@@ -6347,18 +6384,18 @@
       <c r="R77" s="12"/>
       <c r="S77" s="12"/>
       <c r="T77" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>21</v>
@@ -6376,19 +6413,19 @@
         <v>25</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
@@ -6397,18 +6434,18 @@
       <c r="R78" s="12"/>
       <c r="S78" s="12"/>
       <c r="T78" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
@@ -6426,19 +6463,19 @@
         <v>25</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
@@ -6447,18 +6484,18 @@
       <c r="R79" s="12"/>
       <c r="S79" s="12"/>
       <c r="T79" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
@@ -6476,19 +6513,19 @@
         <v>25</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
@@ -6497,18 +6534,18 @@
       <c r="R80" s="12"/>
       <c r="S80" s="12"/>
       <c r="T80" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
@@ -6526,19 +6563,19 @@
         <v>25</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J81" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -6547,18 +6584,18 @@
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>21</v>
@@ -6576,19 +6613,19 @@
         <v>25</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
@@ -6597,18 +6634,18 @@
       <c r="R82" s="12"/>
       <c r="S82" s="12"/>
       <c r="T82" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>21</v>
@@ -6626,19 +6663,19 @@
         <v>25</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
@@ -6647,18 +6684,18 @@
       <c r="R83" s="12"/>
       <c r="S83" s="12"/>
       <c r="T83" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>21</v>
@@ -6676,19 +6713,19 @@
         <v>25</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
@@ -6697,18 +6734,18 @@
       <c r="R84" s="12"/>
       <c r="S84" s="12"/>
       <c r="T84" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>21</v>
@@ -6726,19 +6763,19 @@
         <v>25</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
@@ -6747,18 +6784,18 @@
       <c r="R85" s="12"/>
       <c r="S85" s="12"/>
       <c r="T85" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>21</v>
@@ -6776,19 +6813,19 @@
         <v>25</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
@@ -6797,18 +6834,18 @@
       <c r="R86" s="12"/>
       <c r="S86" s="12"/>
       <c r="T86" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>21</v>
@@ -6826,19 +6863,19 @@
         <v>25</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
@@ -6847,18 +6884,18 @@
       <c r="R87" s="12"/>
       <c r="S87" s="12"/>
       <c r="T87" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>21</v>
@@ -6876,19 +6913,19 @@
         <v>25</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N88" s="12"/>
       <c r="O88" s="12"/>
@@ -6897,18 +6934,18 @@
       <c r="R88" s="12"/>
       <c r="S88" s="12"/>
       <c r="T88" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>21</v>
@@ -6926,19 +6963,19 @@
         <v>25</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
@@ -6947,18 +6984,18 @@
       <c r="R89" s="12"/>
       <c r="S89" s="12"/>
       <c r="T89" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>21</v>
@@ -6976,19 +7013,19 @@
         <v>25</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="N90" s="12"/>
       <c r="O90" s="12"/>
@@ -6997,18 +7034,18 @@
       <c r="R90" s="12"/>
       <c r="S90" s="12"/>
       <c r="T90" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>21</v>
@@ -7026,19 +7063,19 @@
         <v>25</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
@@ -7047,18 +7084,18 @@
       <c r="R91" s="12"/>
       <c r="S91" s="12"/>
       <c r="T91" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>21</v>
@@ -7076,19 +7113,19 @@
         <v>25</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
@@ -7097,18 +7134,18 @@
       <c r="R92" s="12"/>
       <c r="S92" s="12"/>
       <c r="T92" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>21</v>
@@ -7126,19 +7163,19 @@
         <v>25</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J93" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
@@ -7147,18 +7184,18 @@
       <c r="R93" s="12"/>
       <c r="S93" s="12"/>
       <c r="T93" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>21</v>
@@ -7176,19 +7213,19 @@
         <v>25</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L94" s="13" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
@@ -7197,18 +7234,18 @@
       <c r="R94" s="12"/>
       <c r="S94" s="12"/>
       <c r="T94" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>21</v>
@@ -7226,19 +7263,19 @@
         <v>25</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L95" s="13" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
@@ -7247,18 +7284,18 @@
       <c r="R95" s="12"/>
       <c r="S95" s="12"/>
       <c r="T95" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>21</v>
@@ -7276,19 +7313,19 @@
         <v>25</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L96" s="13" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
@@ -7297,18 +7334,18 @@
       <c r="R96" s="12"/>
       <c r="S96" s="12"/>
       <c r="T96" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>21</v>
@@ -7326,19 +7363,19 @@
         <v>25</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="L97" s="11" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M97" s="11" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
@@ -7347,7 +7384,7 @@
       <c r="R97" s="12"/>
       <c r="S97" s="12"/>
       <c r="T97" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
